--- a/TestData/Input_TestData.xlsx
+++ b/TestData/Input_TestData.xlsx
@@ -7712,7 +7712,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="B12" s="49">
-        <x:v>0.0106097434050926</x:v>
+        <x:v>0.0179039977291667</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
